--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1661219.677241198</v>
+        <v>1736749.346906003</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10649678.81092546</v>
+        <v>10649678.81092545</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.681761834235435</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>240.4113059362119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.19510348422553</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>344.9192609869576</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2352121446296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687603</v>
+        <v>240.3636389428399</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>195.1883265228468</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.05983722953789</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>87.69965794540418</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>152.3925105866799</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>134.7660731567842</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>101.9166902817513</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.12199829633401</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>271.7818641996879</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,13 +2614,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
-        <v>200.6498907613226</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>214.0236273888489</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>110.123985102683</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.520986584798</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>46.04381361151437</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>60.81643793528831</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.875667274027</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1969.341425535107</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1595.875667274027</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1595.875667274027</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>184.2708856551155</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551155</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551155</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>184.2708856551155</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.2708856551155</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>1529.2861479534</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1160.323631012988</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>802.0579324062376</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>416.2696798079933</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1602.481113437761</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1233.518596497349</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2567.312485155243</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2348.677818127306</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2348.677818127306</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.677818127306</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857192</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1602.481113437761</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.197155331</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="C10" t="n">
-        <v>405.2609724030931</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="D10" t="n">
-        <v>405.2609724030931</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>610.1265519838905</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>610.1265519838905</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="U10" t="n">
-        <v>574.197155331</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="V10" t="n">
-        <v>574.197155331</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="W10" t="n">
-        <v>574.197155331</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="X10" t="n">
-        <v>574.197155331</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.197155331</v>
+        <v>382.8183646524922</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.4856756861153</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5494927582084</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>549.4328533458727</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>401.5197597634796</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5713,10 +5715,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.926719659885</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.134140516355</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5764,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>4437.149147719352</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8650045523218</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>294.748365139986</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>146.8352715575929</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,22 +6247,22 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>985.2444997006108</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>696.115860914169</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>696.115860914169</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>696.115860914169</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>468.1263100161517</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>846.3978353108172</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1282.730788346944</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1282.730788346944</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1028.046300141057</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>1028.046300141057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1028.046300141057</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y31" t="n">
-        <v>1028.046300141057</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1276.604818531159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1276.604818531159</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1276.604818531159</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1276.604818531159</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>987.1876484941987</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>987.1876484941987</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6929,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,13 +6940,13 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619129</v>
@@ -6968,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.2079870004859</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C37" t="n">
-        <v>244.2079870004859</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D37" t="n">
-        <v>244.2079870004859</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E37" t="n">
-        <v>244.2079870004859</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>244.2079870004859</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>4231.246603057542</v>
       </c>
       <c r="V37" t="n">
-        <v>1164.055751909234</v>
+        <v>3976.562114851655</v>
       </c>
       <c r="W37" t="n">
-        <v>874.6385818722731</v>
+        <v>3687.144944814694</v>
       </c>
       <c r="X37" t="n">
-        <v>646.6490309742558</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.8564518307256</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,22 +7177,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>294.1440025502359</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028587</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>475.7924673804756</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>757.4105722479405</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>588.4743893200337</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>438.3577499076979</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>270.1824282275185</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>939.0590370781803</v>
       </c>
     </row>
     <row r="44">
@@ -7625,22 +7627,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,25 +7651,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7679,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2419.212510152276</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2830.102778996788</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>4081.182609697672</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4360.722674916369</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,16 +7836,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028587</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9252,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776745</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>87.16935584025447</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>43.65987261462259</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="14">
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>10.65497486614709</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>65.33013081687652</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>117.3715701670436</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>14.45548819888944</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
-        <v>20.89767029706661</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>7.523933669540327</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>87.79682488092023</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>20.97258187857955</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>120.4497548518632</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>88.09739043224781</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715717</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721361</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26344,10 +26346,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,31 +26435,31 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,16 +26487,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346035</v>
+        <v>-334166.6284346031</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799416</v>
+        <v>255801.2507799411</v>
       </c>
       <c r="D6" t="n">
-        <v>255801.2507799415</v>
+        <v>255801.2507799417</v>
       </c>
       <c r="E6" t="n">
-        <v>-157664.5833057793</v>
+        <v>-157664.5833057791</v>
       </c>
       <c r="F6" t="n">
-        <v>367495.4531711172</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.453171117</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="H6" t="n">
-        <v>367495.4531711169</v>
+        <v>367495.4531711168</v>
       </c>
       <c r="I6" t="n">
         <v>367495.4531711169</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.2339785239</v>
+        <v>191072.2339785242</v>
       </c>
       <c r="K6" t="n">
-        <v>367495.453171117</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="L6" t="n">
-        <v>367495.453171117</v>
+        <v>367495.4531711168</v>
       </c>
       <c r="M6" t="n">
         <v>232694.4379372798</v>
       </c>
       <c r="N6" t="n">
-        <v>367495.453171117</v>
+        <v>367495.4531711169</v>
       </c>
       <c r="O6" t="n">
         <v>367495.453171117</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>381.0520798292451</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>108.8296627812011</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.59084822180881</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523655</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>61.95678475475387</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>96.00272651142399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.6211234951017</v>
+        <v>45.91823529913779</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>159.4947150978362</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>100.3558755794336</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>58.96553403475365</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.8893636552978</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,13 +35974,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>621.6037559756885</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>420.3639292382673</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.57005156952927</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1736749.346906003</v>
+        <v>1729732.332014293</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.83780061</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.51166598</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.681761834235435</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>324.8533966564055</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14.19510348422553</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>344.9192609869576</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>105.6875942894366</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>240.3636389428399</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>110.0115294480439</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>195.1883265228468</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>207.9606229557945</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>87.69965794540418</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>106.856318602217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>26.12506191947393</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497918</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>100.4879364842049</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>101.9166902817513</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,13 +2295,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701265</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>49.12199829633401</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>118.4898845065092</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722542</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>4.511658855084161</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002151</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>122.6519788371575</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634722</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278749736</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151926</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883384939</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.04381361151437</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750008</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>60.81643793528831</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002151</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>115.5269768002151</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>549.4671059840632</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1782.111371249201</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.2861479534</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1160.323631012988</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D5" t="n">
-        <v>802.0579324062376</v>
+        <v>957.4722849551219</v>
       </c>
       <c r="E5" t="n">
-        <v>416.2696798079933</v>
+        <v>571.6840323568777</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>160.6981275672701</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>485.3374297187173</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>485.3374297187173</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
-        <v>485.3374297187173</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1602.481113437761</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="C8" t="n">
-        <v>1233.518596497349</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>744.6649130981554</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,46 +4810,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.481113437761</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4895,13 +4895,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>382.8183646524922</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C10" t="n">
-        <v>382.8183646524922</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D10" t="n">
-        <v>382.8183646524922</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>610.1265519838905</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>610.1265519838905</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>382.8183646524922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>382.8183646524922</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.8183646524922</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1390.980595202128</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1390.980595202128</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1390.980595202128</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1101.851956415686</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1101.851956415686</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>812.4347863787252</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,13 +5299,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1472.52731912409</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1248.741903913596</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1248.741903913596</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1248.741903913596</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>959.3247338766356</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,34 +5533,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014283</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141858</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.538293612648</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>665.685973528583</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>496.7497906006761</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>346.6331511883403</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>198.7200576059472</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241654</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881687768</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799061</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759470889</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974637</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980033</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585716</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557872</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557872</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557872</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557872</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177143</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655435</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>665.685973528583</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>665.685973528583</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>665.685973528583</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5767,31 +5767,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5816,43 +5816,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.538293612648</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4437.149147719352</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919603</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507268</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>359.1696912903949</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028567</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>4437.149147719352</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V22" t="n">
-        <v>4437.149147719352</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W22" t="n">
-        <v>4437.149147719352</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="X22" t="n">
-        <v>4437.149147719352</v>
+        <v>527.3450129705743</v>
       </c>
       <c r="Y22" t="n">
-        <v>4437.149147719352</v>
+        <v>527.3450129705743</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.708168625643</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701552</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1163.495507227043</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507004</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.87805691801</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136707</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>613.8011874802287</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C25" t="n">
-        <v>444.8650045523218</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D25" t="n">
-        <v>294.748365139986</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E25" t="n">
-        <v>146.8352715575929</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F25" t="n">
-        <v>146.8352715575929</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>835.4163915387937</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352016</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X25" t="n">
-        <v>1016.242231453999</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y25" t="n">
-        <v>795.4496523104684</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550595</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610184</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003433</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515094</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207823</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014286</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231256</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014186</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465294</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121723</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851609</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590529</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614717</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.30891400509</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.30891400509</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.30891400509</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.30891400509</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.30891400509</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.30891400509</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028572</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471178</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S28" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1133.156678913838</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>843.7395088768772</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>615.7499579788598</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353297</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6578,7 +6578,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6694,28 +6694,28 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115527</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395488</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.90154205952</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278216</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6815,7 +6815,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6858,46 +6858,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X34" t="n">
         <v>318.0096706038159</v>
@@ -6916,73 +6916,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514069</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141859</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465293</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121722</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851608</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590528</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614716</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585716</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557872</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557872</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473424</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4231.246603057542</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>3976.562114851655</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3687.144944814694</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182378</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014285</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231255</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126477</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571598</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636232</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="C40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="D40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="E40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="F40" t="n">
-        <v>294.1440025502359</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241954</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688065</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799353</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>696.5850465240057</v>
+        <v>325.206642358303</v>
       </c>
       <c r="X40" t="n">
-        <v>696.5850465240057</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="Y40" t="n">
-        <v>475.7924673804756</v>
+        <v>97.2170914602857</v>
       </c>
     </row>
     <row r="41">
@@ -7399,43 +7399,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>588.4743893200337</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>270.1824282275185</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.0590370781803</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115527</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395488</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.90154205952</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278216</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028587</v>
@@ -7806,52 +7806,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347406</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609639</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550771</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181165</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074200991</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074200991</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297376</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>253.7371603504793</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>87.16935584025447</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776807</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928411</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.108033801575843</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>171.7957480641293</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>44.93311153872634</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>65.33013081687652</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.412825991399586e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>117.3715701670436</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709412</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.617018127348274e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>144.402169512452</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338821</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644576</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318341567</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.986500349943526e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>120.4497548518632</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338841</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>88.09739043224781</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338821</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271615</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715719</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>908331.1362715716</v>
+        <v>908331.1362715708</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715709</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.136271571</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715709</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.136271571</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>908331.1362715719</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>908331.1362715717</v>
+        <v>908331.1362715716</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651774</v>
@@ -26328,31 +26328,31 @@
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721355</v>
       </c>
       <c r="H2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="I2" t="n">
+        <v>488786.3246721354</v>
+      </c>
+      <c r="J2" t="n">
+        <v>488786.3246721355</v>
+      </c>
+      <c r="K2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="I2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>488786.3246721356</v>
+      </c>
+      <c r="N2" t="n">
+        <v>488786.3246721355</v>
+      </c>
+      <c r="O2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721359</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338367</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="C4" t="n">
         <v>174490.7773218262</v>
@@ -26432,34 +26432,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230226</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230242</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871649</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871648</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-334166.6284346031</v>
+        <v>-334166.6284346032</v>
       </c>
       <c r="C6" t="n">
-        <v>255801.2507799411</v>
+        <v>255801.2507799416</v>
       </c>
       <c r="D6" t="n">
         <v>255801.2507799417</v>
       </c>
       <c r="E6" t="n">
-        <v>-157664.5833057791</v>
+        <v>-158639.1745655007</v>
       </c>
       <c r="F6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="G6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113957</v>
       </c>
       <c r="H6" t="n">
-        <v>367495.4531711168</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="I6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113959</v>
       </c>
       <c r="J6" t="n">
-        <v>191072.2339785242</v>
+        <v>190097.6427188019</v>
       </c>
       <c r="K6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.861911395</v>
       </c>
       <c r="L6" t="n">
-        <v>367495.4531711168</v>
+        <v>366520.8619113953</v>
       </c>
       <c r="M6" t="n">
-        <v>232694.4379372798</v>
+        <v>231719.8466775584</v>
       </c>
       <c r="N6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.861911395</v>
       </c>
       <c r="O6" t="n">
-        <v>367495.453171117</v>
+        <v>366520.8619113951</v>
       </c>
       <c r="P6" t="n">
-        <v>367495.4531711169</v>
+        <v>366520.8619113952</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,16 +26804,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253571</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-6.957416057149712e-14</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990154</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>381.0520798292451</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82.02264908530594</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>272.3278948523655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>61.95678475475387</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>308.0965757313584</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>45.91823529913779</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.1261138757841</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>159.4947150978362</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.8235470650004</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.882105749397013</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>58.96553403475365</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.180212146020494e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-3.044770361763464e-11</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.412825991399586e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-2.790253953814196e-11</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970348939</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092003</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016553506</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092003</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490637</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594828</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>586.9317337484913</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523304</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507368</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533704</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117725</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N39" t="n">
-        <v>420.3639292382673</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092047</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533704</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.093414931524</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
